--- a/solidity_vs_vyper.xlsx
+++ b/solidity_vs_vyper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\github_repos\ethio_playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD1B07-5E34-4399-B7D5-20B6C2217785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9B3730-1D71-4FDA-96AD-2E0592625F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3816" yWindow="1008" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>https://reference.auditless.com/cheatsheet/</t>
+  </si>
+  <si>
+    <t>Solidity</t>
+  </si>
+  <si>
+    <t>Vyper</t>
+  </si>
+  <si>
+    <t>Launch year</t>
+  </si>
+  <si>
+    <t>Inspiration</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Turing-Complete</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Remarks for Solidity</t>
+  </si>
+  <si>
+    <t>Remarks for Vyper</t>
+  </si>
+  <si>
+    <t>Won't run infinite loop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -51,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,12 +106,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,18 +420,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>